--- a/src/main/resources/dumy-data/users.xlsx
+++ b/src/main/resources/dumy-data/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cashlog\src\main\resources\dumy-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6EF80F-CF69-4B2F-A2EC-9A20D3BD77DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BDD59E-8032-423C-BA7A-47AB77779E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{002D32AF-6E75-4C0E-B940-B7BD752EE672}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$124</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="500">
   <si>
     <t>email</t>
   </si>
@@ -1527,6 +1527,15 @@
   </si>
   <si>
     <t>""</t>
+  </si>
+  <si>
+    <t>className</t>
+  </si>
+  <si>
+    <t>AT18N</t>
+  </si>
+  <si>
+    <t>CT6N</t>
   </si>
 </sst>
 </file>
@@ -1911,11 +1920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EE798A-74D8-4DA9-B7EB-041732CDB7A6}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="65" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
@@ -1927,10 +1935,11 @@
     <col min="5" max="5" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="65" style="1"/>
+    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="65" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1952,8 +1961,11 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H1" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>70</v>
       </c>
@@ -1975,8 +1987,11 @@
       <c r="G2" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H2" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>71</v>
       </c>
@@ -1998,8 +2013,11 @@
       <c r="G3" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H3" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>72</v>
       </c>
@@ -2021,8 +2039,11 @@
       <c r="G4" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H4" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>73</v>
       </c>
@@ -2044,8 +2065,11 @@
       <c r="G5" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H5" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>74</v>
       </c>
@@ -2067,8 +2091,11 @@
       <c r="G6" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H6" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>75</v>
       </c>
@@ -2090,8 +2117,11 @@
       <c r="G7" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H7" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>76</v>
       </c>
@@ -2113,8 +2143,11 @@
       <c r="G8" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H8" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>77</v>
       </c>
@@ -2136,8 +2169,11 @@
       <c r="G9" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H9" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>78</v>
       </c>
@@ -2159,8 +2195,11 @@
       <c r="G10" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H10" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>79</v>
       </c>
@@ -2182,8 +2221,11 @@
       <c r="G11" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H11" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>80</v>
       </c>
@@ -2205,8 +2247,11 @@
       <c r="G12" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H12" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>81</v>
       </c>
@@ -2228,8 +2273,11 @@
       <c r="G13" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H13" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>82</v>
       </c>
@@ -2251,8 +2299,11 @@
       <c r="G14" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H14" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>83</v>
       </c>
@@ -2274,8 +2325,11 @@
       <c r="G15" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H15" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>84</v>
       </c>
@@ -2297,8 +2351,11 @@
       <c r="G16" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H16" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>85</v>
       </c>
@@ -2320,8 +2377,11 @@
       <c r="G17" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H17" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>86</v>
       </c>
@@ -2343,8 +2403,11 @@
       <c r="G18" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H18" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>87</v>
       </c>
@@ -2366,8 +2429,11 @@
       <c r="G19" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H19" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>88</v>
       </c>
@@ -2389,8 +2455,11 @@
       <c r="G20" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H20" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>89</v>
       </c>
@@ -2412,8 +2481,11 @@
       <c r="G21" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H21" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>90</v>
       </c>
@@ -2435,8 +2507,11 @@
       <c r="G22" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H22" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>91</v>
       </c>
@@ -2458,8 +2533,11 @@
       <c r="G23" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H23" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>92</v>
       </c>
@@ -2481,8 +2559,11 @@
       <c r="G24" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H24" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>93</v>
       </c>
@@ -2504,8 +2585,11 @@
       <c r="G25" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H25" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>94</v>
       </c>
@@ -2527,8 +2611,11 @@
       <c r="G26" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H26" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>95</v>
       </c>
@@ -2550,8 +2637,11 @@
       <c r="G27" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H27" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>96</v>
       </c>
@@ -2573,8 +2663,11 @@
       <c r="G28" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H28" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>97</v>
       </c>
@@ -2596,8 +2689,11 @@
       <c r="G29" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H29" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
         <v>98</v>
       </c>
@@ -2619,8 +2715,11 @@
       <c r="G30" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H30" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>99</v>
       </c>
@@ -2642,8 +2741,11 @@
       <c r="G31" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H31" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>100</v>
       </c>
@@ -2665,8 +2767,11 @@
       <c r="G32" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H32" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>101</v>
       </c>
@@ -2688,8 +2793,11 @@
       <c r="G33" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H33" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>102</v>
       </c>
@@ -2711,8 +2819,11 @@
       <c r="G34" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H34" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>103</v>
       </c>
@@ -2734,8 +2845,11 @@
       <c r="G35" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H35" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>104</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="G36" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H36" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>105</v>
       </c>
@@ -2780,8 +2897,11 @@
       <c r="G37" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H37" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
         <v>106</v>
       </c>
@@ -2803,8 +2923,11 @@
       <c r="G38" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H38" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>107</v>
       </c>
@@ -2826,8 +2949,11 @@
       <c r="G39" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H39" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>108</v>
       </c>
@@ -2849,8 +2975,11 @@
       <c r="G40" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H40" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>109</v>
       </c>
@@ -2872,8 +3001,11 @@
       <c r="G41" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H41" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>110</v>
       </c>
@@ -2895,8 +3027,11 @@
       <c r="G42" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H42" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>111</v>
       </c>
@@ -2918,8 +3053,11 @@
       <c r="G43" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H43" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>112</v>
       </c>
@@ -2941,8 +3079,11 @@
       <c r="G44" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H44" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>113</v>
       </c>
@@ -2964,8 +3105,11 @@
       <c r="G45" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H45" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>114</v>
       </c>
@@ -2987,8 +3131,11 @@
       <c r="G46" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H46" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>115</v>
       </c>
@@ -3010,8 +3157,11 @@
       <c r="G47" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H47" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>116</v>
       </c>
@@ -3033,8 +3183,11 @@
       <c r="G48" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H48" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>117</v>
       </c>
@@ -3056,8 +3209,11 @@
       <c r="G49" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H49" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>118</v>
       </c>
@@ -3079,8 +3235,11 @@
       <c r="G50" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H50" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>119</v>
       </c>
@@ -3102,8 +3261,11 @@
       <c r="G51" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H51" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
         <v>120</v>
       </c>
@@ -3125,8 +3287,11 @@
       <c r="G52" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H52" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
         <v>121</v>
       </c>
@@ -3148,8 +3313,11 @@
       <c r="G53" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H53" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
         <v>122</v>
       </c>
@@ -3171,8 +3339,11 @@
       <c r="G54" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H54" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
         <v>123</v>
       </c>
@@ -3194,8 +3365,11 @@
       <c r="G55" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H55" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
         <v>124</v>
       </c>
@@ -3217,8 +3391,11 @@
       <c r="G56" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H56" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
         <v>125</v>
       </c>
@@ -3240,8 +3417,11 @@
       <c r="G57" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H57" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
         <v>126</v>
       </c>
@@ -3263,8 +3443,11 @@
       <c r="G58" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H58" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
         <v>127</v>
       </c>
@@ -3286,8 +3469,11 @@
       <c r="G59" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H59" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>128</v>
       </c>
@@ -3309,8 +3495,11 @@
       <c r="G60" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H60" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>129</v>
       </c>
@@ -3332,8 +3521,11 @@
       <c r="G61" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H61" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
         <v>7</v>
       </c>
@@ -3355,8 +3547,11 @@
       <c r="G62" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H62" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
         <v>8</v>
       </c>
@@ -3378,8 +3573,11 @@
       <c r="G63" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H63" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>9</v>
       </c>
@@ -3401,8 +3599,11 @@
       <c r="G64" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H64" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>10</v>
       </c>
@@ -3424,8 +3625,11 @@
       <c r="G65" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H65" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>11</v>
       </c>
@@ -3447,8 +3651,11 @@
       <c r="G66" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H66" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>12</v>
       </c>
@@ -3470,8 +3677,11 @@
       <c r="G67" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H67" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>13</v>
       </c>
@@ -3493,8 +3703,11 @@
       <c r="G68" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H68" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>14</v>
       </c>
@@ -3516,8 +3729,11 @@
       <c r="G69" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H69" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>15</v>
       </c>
@@ -3539,8 +3755,11 @@
       <c r="G70" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H70" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>16</v>
       </c>
@@ -3562,8 +3781,11 @@
       <c r="G71" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H71" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>17</v>
       </c>
@@ -3585,8 +3807,11 @@
       <c r="G72" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H72" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>18</v>
       </c>
@@ -3608,8 +3833,11 @@
       <c r="G73" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H73" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>19</v>
       </c>
@@ -3631,8 +3859,11 @@
       <c r="G74" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H74" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>20</v>
       </c>
@@ -3654,8 +3885,11 @@
       <c r="G75" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H75" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>21</v>
       </c>
@@ -3677,8 +3911,11 @@
       <c r="G76" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H76" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>22</v>
       </c>
@@ -3700,8 +3937,11 @@
       <c r="G77" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H77" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>23</v>
       </c>
@@ -3723,8 +3963,11 @@
       <c r="G78" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H78" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>24</v>
       </c>
@@ -3746,8 +3989,11 @@
       <c r="G79" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H79" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>25</v>
       </c>
@@ -3769,8 +4015,11 @@
       <c r="G80" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H80" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>26</v>
       </c>
@@ -3792,8 +4041,11 @@
       <c r="G81" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H81" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>27</v>
       </c>
@@ -3815,8 +4067,11 @@
       <c r="G82" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H82" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>28</v>
       </c>
@@ -3838,8 +4093,11 @@
       <c r="G83" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H83" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>29</v>
       </c>
@@ -3861,8 +4119,11 @@
       <c r="G84" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H84" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>30</v>
       </c>
@@ -3884,8 +4145,11 @@
       <c r="G85" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H85" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>31</v>
       </c>
@@ -3907,8 +4171,11 @@
       <c r="G86" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H86" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>32</v>
       </c>
@@ -3930,8 +4197,11 @@
       <c r="G87" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H87" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>33</v>
       </c>
@@ -3953,8 +4223,11 @@
       <c r="G88" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H88" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>34</v>
       </c>
@@ -3976,8 +4249,11 @@
       <c r="G89" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H89" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>35</v>
       </c>
@@ -3999,8 +4275,11 @@
       <c r="G90" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H90" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
         <v>36</v>
       </c>
@@ -4022,8 +4301,11 @@
       <c r="G91" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H91" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>37</v>
       </c>
@@ -4045,8 +4327,11 @@
       <c r="G92" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H92" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>38</v>
       </c>
@@ -4068,8 +4353,11 @@
       <c r="G93" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H93" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>39</v>
       </c>
@@ -4091,8 +4379,11 @@
       <c r="G94" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H94" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>40</v>
       </c>
@@ -4114,8 +4405,11 @@
       <c r="G95" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H95" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>41</v>
       </c>
@@ -4137,8 +4431,11 @@
       <c r="G96" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H96" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>42</v>
       </c>
@@ -4160,8 +4457,11 @@
       <c r="G97" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H97" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>43</v>
       </c>
@@ -4183,8 +4483,11 @@
       <c r="G98" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H98" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>44</v>
       </c>
@@ -4206,8 +4509,11 @@
       <c r="G99" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H99" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>45</v>
       </c>
@@ -4229,8 +4535,11 @@
       <c r="G100" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H100" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
         <v>46</v>
       </c>
@@ -4252,8 +4561,11 @@
       <c r="G101" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H101" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
         <v>47</v>
       </c>
@@ -4275,8 +4587,11 @@
       <c r="G102" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H102" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>48</v>
       </c>
@@ -4298,8 +4613,11 @@
       <c r="G103" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H103" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
         <v>49</v>
       </c>
@@ -4321,8 +4639,11 @@
       <c r="G104" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H104" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
         <v>50</v>
       </c>
@@ -4344,8 +4665,11 @@
       <c r="G105" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H105" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
         <v>51</v>
       </c>
@@ -4367,8 +4691,11 @@
       <c r="G106" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H106" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
         <v>52</v>
       </c>
@@ -4390,8 +4717,11 @@
       <c r="G107" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H107" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
         <v>53</v>
       </c>
@@ -4413,8 +4743,11 @@
       <c r="G108" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H108" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
         <v>54</v>
       </c>
@@ -4436,8 +4769,11 @@
       <c r="G109" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H109" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
         <v>55</v>
       </c>
@@ -4459,8 +4795,11 @@
       <c r="G110" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H110" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
         <v>56</v>
       </c>
@@ -4482,8 +4821,11 @@
       <c r="G111" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H111" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
         <v>57</v>
       </c>
@@ -4505,8 +4847,11 @@
       <c r="G112" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H112" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
         <v>58</v>
       </c>
@@ -4528,8 +4873,11 @@
       <c r="G113" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H113" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114" s="2" t="s">
         <v>59</v>
       </c>
@@ -4551,8 +4899,11 @@
       <c r="G114" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H114" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A115" s="2" t="s">
         <v>60</v>
       </c>
@@ -4574,8 +4925,11 @@
       <c r="G115" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H115" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
         <v>61</v>
       </c>
@@ -4597,8 +4951,11 @@
       <c r="G116" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H116" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
         <v>62</v>
       </c>
@@ -4620,8 +4977,11 @@
       <c r="G117" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H117" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
         <v>63</v>
       </c>
@@ -4643,8 +5003,11 @@
       <c r="G118" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H118" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
         <v>64</v>
       </c>
@@ -4666,8 +5029,11 @@
       <c r="G119" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H119" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
         <v>65</v>
       </c>
@@ -4689,8 +5055,11 @@
       <c r="G120" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H120" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121" s="2" t="s">
         <v>66</v>
       </c>
@@ -4712,8 +5081,11 @@
       <c r="G121" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H121" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
         <v>67</v>
       </c>
@@ -4735,8 +5107,11 @@
       <c r="G122" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H122" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
         <v>68</v>
       </c>
@@ -4758,8 +5133,11 @@
       <c r="G123" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H123" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
         <v>69</v>
       </c>
@@ -4781,13 +5159,12 @@
       <c r="G124" s="2" t="s">
         <v>253</v>
       </c>
+      <c r="H124" s="1" t="s">
+        <v>499</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G124" xr:uid="{97EE798A-74D8-4DA9-B7EB-041732CDB7A6}">
-    <filterColumn colId="2">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H124" xr:uid="{97EE798A-74D8-4DA9-B7EB-041732CDB7A6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
